--- a/src/pages/downloads/Labor_Order_Finalized_After_Deadlines_Report.xlsx
+++ b/src/pages/downloads/Labor_Order_Finalized_After_Deadlines_Report.xlsx
@@ -116,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="6.0" state="frozen" topLeftCell="A7" activePane="bottomLeft"/>
@@ -154,7 +154,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>07-07-2025 @ 23:30</t>
+          <t>07-10-2025 @ 22:02</t>
         </is>
       </c>
     </row>
@@ -178,7 +178,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>From Work Date: 01-01-2025; To Work Date: 07-08-2025; Shift: 1ST</t>
+          <t>From Work Date: 01-01-2025; To Work Date: 07-11-2025; Shift: 1ST</t>
         </is>
       </c>
     </row>
@@ -216,6 +216,43 @@
       <c r="G6" s="11" t="inlineStr">
         <is>
           <t>Time Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>COSCO ENGLAND</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>To Start</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>SOTA_DEV_SIT_Ops_Management</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>07/08/25  9:17:21 PM</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>&gt;15 Min</t>
         </is>
       </c>
     </row>
@@ -235,21 +272,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>select operation, refers, workDt, work_dt, shift, opsMgr,recvDtTm, (case when minDiff &lt;= 15 then '&lt;=15 Min' else '&gt;15 Min' end) diff from (select ji.vessel_nm operation, oo.refers,CONVERT(VARCHAR(10),(CONVERT(DATETIME, cast(oo.WORK_DT as varchar),103)),101) workDt,WORK_DT, (case when oo.shift = 1 then '1ST' when oo.shift=2 then '2ND' else '3RD' end) shift, oo.ops_mgr opsMgr, convert(varchar, oo.OPS_UPDATE_TIME, 22) recvDtTm, DATEDIFF(minute, oo.LO_CUT_OFF_TM, oo.OPS_UPDATE_TIME ) AS minDiff from OPS_ORDER oo, JOB_INFO ji where ji.id = oo.JOB_ID and oo.TYPE =1 and oo.ORDER_STATUS = 2 and oo.WORK_DT between '20250101' and '20250708'  AND oo.shift = '1') output where minDiff&gt;0 order by WORK_DT, operation, recvDtTm</t>
+          <t>select operation, refers, workDt, work_dt, shift, opsMgr,recvDtTm, (case when minDiff &lt;= 15 then '&lt;=15 Min' else '&gt;15 Min' end) diff from (select ji.vessel_nm operation, oo.refers,CONVERT(VARCHAR(10),(CONVERT(DATETIME, cast(oo.WORK_DT as varchar),103)),101) workDt,WORK_DT, (case when oo.shift = 1 then '1ST' when oo.shift=2 then '2ND' else '3RD' end) shift, oo.ops_mgr opsMgr, convert(varchar, oo.OPS_UPDATE_TIME, 22) recvDtTm, DATEDIFF(minute, oo.LO_CUT_OFF_TM, oo.OPS_UPDATE_TIME ) AS minDiff from OPS_ORDER oo, JOB_INFO ji where ji.id = oo.JOB_ID and oo.TYPE =1 and oo.ORDER_STATUS = 2 and oo.WORK_DT between '20250101' and '20250711'  AND oo.shift = '1') output where minDiff&gt;0 order by WORK_DT, operation, recvDtTm</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Start Time: Mon Jul 07 23:30:58 PDT 2025</t>
+          <t>Start Time: Thu Jul 10 22:02:14 PDT 2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>End Time  : Mon Jul 07 23:30:58 PDT 2025</t>
+          <t>End Time  : Thu Jul 10 22:02:14 PDT 2025</t>
         </is>
       </c>
     </row>
